--- a/publication/scaling_resolution/figure.xlsx
+++ b/publication/scaling_resolution/figure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40420" windowHeight="20440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40420" windowHeight="20440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="summary_wide.csv" sheetId="1" r:id="rId1"/>
@@ -109,9 +109,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -142,7 +150,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="26">
+  <cellStyles count="34">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -156,6 +164,10 @@
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -168,6 +180,10 @@
     <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -249,13 +265,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2 nm</c:v>
+                  <c:v>8 nm</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4 nm</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8 nm</c:v>
+                  <c:v>2 nm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -332,13 +348,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2 nm</c:v>
+                  <c:v>8 nm</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4 nm</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8 nm</c:v>
+                  <c:v>2 nm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -415,13 +431,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2 nm</c:v>
+                  <c:v>8 nm</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4 nm</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8 nm</c:v>
+                  <c:v>2 nm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -454,11 +470,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2082718152"/>
-        <c:axId val="-2083379736"/>
+        <c:axId val="-2083744664"/>
+        <c:axId val="-2084487704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2082718152"/>
+        <c:axId val="-2083744664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,7 +502,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2083379736"/>
+        <c:crossAx val="-2084487704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -494,7 +510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2083379736"/>
+        <c:axId val="-2084487704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -530,7 +546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2082718152"/>
+        <c:crossAx val="-2083744664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -911,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -962,7 +978,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0.93598760582200002</v>
@@ -1000,7 +1016,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0.86212120550500004</v>
@@ -1014,7 +1030,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0.81360447118099999</v>
@@ -1028,7 +1044,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0.93331372200100005</v>
@@ -1122,7 +1138,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>0.54553391008999996</v>
@@ -1160,7 +1176,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>0.75439555017799997</v>
@@ -1174,7 +1190,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>0.67505074277199995</v>
@@ -1188,7 +1204,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>0.81167208745700004</v>
@@ -1215,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1254,7 +1270,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>0.88625675112725</v>
@@ -1300,7 +1316,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>0.69666307262424998</v>
